--- a/hw1/report.xlsx
+++ b/hw1/report.xlsx
@@ -105,12 +105,104 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -119,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,6 +219,30 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -217,7 +333,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$D$17:$G$17</c:f>
+              <c:f>工作表1!$D$16:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -294,7 +410,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$D$19:$G$19</c:f>
+              <c:f>工作表1!$D$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -371,7 +487,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$D$18:$G$18</c:f>
+              <c:f>工作表1!$D$17:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -448,7 +564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$D$20:$G$20</c:f>
+              <c:f>工作表1!$D$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1249,13 +1365,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1541,33 +1657,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G20"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -1577,30 +1700,35 @@
         <v>5.5356199999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>7.4401299999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>5.6271899999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -1610,14 +1738,14 @@
         <v>5.4409200000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>7.57904</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>5.7918700000000003</v>
       </c>
     </row>
@@ -1635,99 +1763,107 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>7</v>
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>1E-4</v>
+        <v>7.4623699999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>1E-3</v>
+        <v>7.4623600000000003</v>
       </c>
       <c r="F16" s="1">
-        <v>0.01</v>
+        <v>7.4623299999999997</v>
       </c>
       <c r="G16" s="1">
-        <v>0.1</v>
+        <v>7.4619799999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7.4623699999999999</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7.4623600000000003</v>
-      </c>
-      <c r="F17" s="1">
-        <v>7.4623299999999997</v>
-      </c>
-      <c r="G17" s="1">
-        <v>7.4619799999999996</v>
+    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5.5356199999999998</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5.5356100000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5.5355299999999996</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5.53477</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>4</v>
+      <c r="B18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D18" s="1">
-        <v>5.5356199999999998</v>
+        <v>7.4401299999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>5.5356100000000001</v>
+        <v>7.4401299999999999</v>
       </c>
       <c r="F18" s="1">
-        <v>5.5355299999999996</v>
+        <v>7.4401299999999999</v>
       </c>
       <c r="G18" s="1">
-        <v>5.53477</v>
+        <v>7.4401200000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7.4401299999999999</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7.4401299999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>7.4401299999999999</v>
-      </c>
-      <c r="G19" s="1">
-        <v>7.4401200000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="19" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D19" s="3">
         <v>5.6271899999999997</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E19" s="3">
         <v>5.6271899999999997</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F19" s="3">
         <v>5.6271899999999997</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G19" s="3">
         <v>5.6272000000000002</v>
       </c>
     </row>

--- a/hw1/report.xlsx
+++ b/hw1/report.xlsx
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Regularizatoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> λ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>public</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,11 +61,22 @@
     <t>private</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> λ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regularization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -117,21 +120,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -185,7 +173,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
         <color indexed="64"/>
       </right>
       <top/>
@@ -196,7 +199,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="dashed">
         <color indexed="64"/>
       </right>
       <top/>
@@ -211,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +225,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -236,13 +242,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -278,7 +287,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4733727810650888E-2"/>
+          <c:y val="8.3333333333333329E-2"/>
+          <c:w val="0.68636009256239416"/>
+          <c:h val="0.74350320793234181"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -335,7 +354,7 @@
             <c:numRef>
               <c:f>工作表1!$D$16:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000_);[Red]\(0.00000\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.4623699999999999</c:v>
@@ -412,7 +431,7 @@
             <c:numRef>
               <c:f>工作表1!$D$18:$G$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000_);[Red]\(0.00000\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.4401299999999999</c:v>
@@ -489,7 +508,7 @@
             <c:numRef>
               <c:f>工作表1!$D$17:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000_);[Red]\(0.00000\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.5356199999999998</c:v>
@@ -566,7 +585,7 @@
             <c:numRef>
               <c:f>工作表1!$D$19:$G$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000_);[Red]\(0.00000\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.6271899999999997</c:v>
@@ -622,6 +641,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-TW"/>
+                  <a:t>λ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t> (log scale)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -685,7 +765,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.73898750821827741"/>
+              <c:y val="0.40415901137357829"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1659,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1773,10 +1917,10 @@
     </row>
     <row r="15" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4">
         <v>1E-4</v>
@@ -1796,18 +1940,18 @@
         <v>0</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="11">
         <v>7.4623699999999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="11">
         <v>7.4623600000000003</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="11">
         <v>7.4623299999999997</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="11">
         <v>7.4619799999999996</v>
       </c>
     </row>
@@ -1816,16 +1960,16 @@
       <c r="C17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="12">
         <v>5.5356199999999998</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="12">
         <v>5.5356100000000001</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="12">
         <v>5.5355299999999996</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="12">
         <v>5.53477</v>
       </c>
     </row>
@@ -1834,36 +1978,36 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11">
         <v>7.4401299999999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="11">
         <v>7.4401299999999999</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="11">
         <v>7.4401299999999999</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="11">
         <v>7.4401200000000003</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12">
         <v>5.6271899999999997</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="12">
         <v>5.6271899999999997</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="12">
         <v>5.6271899999999997</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="12">
         <v>5.6272000000000002</v>
       </c>
     </row>

--- a/hw1/report.xlsx
+++ b/hw1/report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>全部汙染源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>private</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> λ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,13 +65,30 @@
     <t>Regularization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>rms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -214,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -248,7 +261,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,7 +376,7 @@
             <c:numRef>
               <c:f>工作表1!$D$16:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>0.00000_);[Red]\(0.00000\)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.4623699999999999</c:v>
@@ -429,9 +451,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$D$18:$G$18</c:f>
+              <c:f>工作表1!$D$19:$G$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00000_);[Red]\(0.00000\)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.4401299999999999</c:v>
@@ -583,9 +605,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$D$19:$G$19</c:f>
+              <c:f>工作表1!$D$20:$G$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00000_);[Red]\(0.00000\)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.6271899999999997</c:v>
@@ -1509,13 +1531,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1801,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G19"/>
+  <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1821,6 +1843,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -1832,6 +1855,9 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -1843,6 +1869,10 @@
       <c r="D5" s="1">
         <v>5.5356199999999998</v>
       </c>
+      <c r="E5" s="13">
+        <f>SQRT((D5^2+C5^2)/2)</f>
+        <v>6.5700096956283103</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -1853,12 +1883,17 @@
       </c>
       <c r="D6" s="3">
         <v>5.6271899999999997</v>
+      </c>
+      <c r="E6" s="15">
+        <f>SQRT((D6^2+C6^2)/2)</f>
+        <v>6.5962414189066791</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -1870,6 +1905,9 @@
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -1881,6 +1919,10 @@
       <c r="D10" s="1">
         <v>5.4409200000000002</v>
       </c>
+      <c r="E10" s="13">
+        <f>SQRT((D10^2+C10^2)/2)</f>
+        <v>6.6433320332834489</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
@@ -1891,6 +1933,10 @@
       </c>
       <c r="D11" s="3">
         <v>5.7918700000000003</v>
+      </c>
+      <c r="E11" s="15">
+        <f>SQRT((D11^2+C11^2)/2)</f>
+        <v>6.744909392219439</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1917,10 +1963,10 @@
     </row>
     <row r="15" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4">
         <v>1E-4</v>
@@ -1955,60 +2001,104 @@
         <v>7.4619799999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="10" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="14">
         <v>5.5356199999999998</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="14">
         <v>5.5356100000000001</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="14">
         <v>5.5355299999999996</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="14">
         <v>5.53477</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="12">
+        <f>SQRT((D17^2+D16^2)/2)</f>
+        <v>6.5700096956283103</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" ref="E18:G18" si="0">SQRT((E17^2+E16^2)/2)</f>
+        <v>6.5699998037176535</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>6.5699490641023992</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>6.5694301302814688</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>7.4401299999999999</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>7.4401299999999999</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>7.4401299999999999</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>7.4401200000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="12">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14">
         <v>5.6271899999999997</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="14">
         <v>5.6271899999999997</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="14">
         <v>5.6271899999999997</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="14">
         <v>5.6272000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="12">
+        <f>SQRT((D20^2+D19^2)/2)</f>
+        <v>6.5962414189066791</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" ref="E21:G21" si="1">SQRT((E20^2+E19^2)/2)</f>
+        <v>6.5962414189066791</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="1"/>
+        <v>6.5962414189066791</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="1"/>
+        <v>6.5962400446921281</v>
       </c>
     </row>
   </sheetData>
